--- a/DateBase/orders/Nha Thu_2025-12-23.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -690,10 +690,19 @@
         <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
 white_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_菟葵绿粉 
+green_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L32"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -751,7 +760,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0535535553510105566105331055476320200</v>
+        <v>05355355535101055661053310554763202050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-12-23.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-23.xlsx
@@ -699,6 +699,9 @@
         <v xml:space="preserve">386_菟葵绿粉 
 green_undefined_undefined_1bunch</v>
       </c>
+      <c r="F32" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -760,7 +763,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05355355535101055661053310554763202050</v>
+        <v>05355355535101055661053310554763202053</v>
       </c>
     </row>
   </sheetData>
